--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-162161.8231114807</v>
+        <v>-101018.0828565619</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17393893.48890403</v>
+        <v>16693787.93026803</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484444</v>
+        <v>492028.9342484454</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8756458.81687957</v>
+        <v>8760759.030644383</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.21096167920314</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>139.4558578025102</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -677,7 +677,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
@@ -817,10 +817,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>177.9326461527348</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>105.813161868656</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -911,10 +911,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>87.32909066488709</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>221.356299155636</v>
       </c>
     </row>
     <row r="6">
@@ -1060,7 +1060,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1069,10 +1069,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>236.1257352421979</v>
       </c>
       <c r="V7" t="n">
-        <v>38.15948332614173</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>178.9062451557988</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.3004145557237</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1291,13 +1291,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>32.98066327132575</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1306,10 +1306,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1348,7 +1348,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>110.3652149530544</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1370,13 +1370,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>44.72064163032286</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1436,7 +1436,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>383.8985342710841</v>
       </c>
     </row>
     <row r="12">
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1585,7 +1585,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>144.4937753855486</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>141.9505967762586</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>381.7217053892207</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>35.20092700998643</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>168.3894349117783</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>57.50240135967859</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>326.0207700206235</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2014,10 +2014,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022729</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>122.4914619056501</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>133.576043614712</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>173.008255306012</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2299,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>129.713962706846</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>135.1077460700517</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2491,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225694</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2725,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>148.7223419617678</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361651</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3190,7 +3190,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>212.5023562141209</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413112</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496634</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385524</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545403</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.3530449561368</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242213</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724684</v>
+        <v>286.238853011215</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925389</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169443</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174058</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267642</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043295</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.7153284477349</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245956</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.983502531745</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730226</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856862</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432395</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934369</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762358</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185818</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006782</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095264</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.0704300308239</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811742</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402853</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999614</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083136</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972026</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131904</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>411.900152214787</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828714</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311186</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790405</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755945</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760559</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854144</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629797</v>
       </c>
       <c r="X38" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063851</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832447</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516999</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>159.14749132151</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903952</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316728</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>163.251380417764</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443333</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>104.0076614089661</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934213</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>145.960351934886</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>231.732048877232</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593284</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681765</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894741</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398243</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989355</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999614</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083136</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972026</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131904</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>411.900152214787</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828714</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311186</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790405</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755945</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760559</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854144</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629797</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063851</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832458</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516999</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>159.14749132151</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903952</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316728</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>163.251380417764</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443333</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>18.4078747544079</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>76.0847466529741</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934455</v>
+        <v>9.515040001584527</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>145.960351934886</v>
       </c>
       <c r="T43" t="n">
-        <v>227.184941618582</v>
+        <v>231.732048877232</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593284</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681765</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894741</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398243</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989355</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999614</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083136</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972026</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131904</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>411.900152214787</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828714</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311186</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790405</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755945</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>244.9414765760559</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854144</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629797</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063851</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832458</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516999</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>159.14749132151</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>152.5306097903952</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316728</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>163.251380417764</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443333</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>104.0076614089656</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934455</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>145.960351934886</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>231.732048877232</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593284</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681765</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894741</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398243</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989355</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1245.49437657324</v>
+        <v>1381.691946481611</v>
       </c>
       <c r="C2" t="n">
-        <v>1211.392307797067</v>
+        <v>1347.589877705439</v>
       </c>
       <c r="D2" t="n">
-        <v>1179.522927011916</v>
+        <v>911.680092879883</v>
       </c>
       <c r="E2" t="n">
-        <v>750.9412527491843</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1408.196832586058</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1403.951112926115</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4087263891149</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4087263891149</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4087263891149</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E4" t="n">
-        <v>210.6507226398521</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V4" t="n">
-        <v>951.1357312073217</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W4" t="n">
-        <v>679.1093267936133</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X4" t="n">
-        <v>572.2273451081021</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y4" t="n">
-        <v>572.2273451081021</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1434.694206920162</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C5" t="n">
-        <v>1006.11253265743</v>
+        <v>944.2701990826092</v>
       </c>
       <c r="D5" t="n">
-        <v>577.5308583946985</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E5" t="n">
-        <v>547.7965175933978</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F5" t="n">
-        <v>523.9694920430096</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>122.5716606662735</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>1477.116202953456</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W5" t="n">
-        <v>1476.301152404893</v>
+        <v>2047.406523133708</v>
       </c>
       <c r="X5" t="n">
-        <v>1461.199093024608</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y5" t="n">
-        <v>1456.953373364666</v>
+        <v>1404.67183834369</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>714.6817019292769</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>542.1199904125018</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>376.2419976140245</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>376.2419976140245</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>199.5349435757807</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>1146.964903885608</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1146.964903885608</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1566.63415311139</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>2164.252715036267</v>
       </c>
       <c r="V7" t="n">
-        <v>1232.099861009573</v>
+        <v>1877.297206906698</v>
       </c>
       <c r="W7" t="n">
-        <v>960.0734565958644</v>
+        <v>1605.270802492989</v>
       </c>
       <c r="X7" t="n">
-        <v>714.6817019292769</v>
+        <v>1359.879047826402</v>
       </c>
       <c r="Y7" t="n">
-        <v>714.6817019292769</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1536.275956644256</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>1098.133483827679</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>662.2236990021233</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>228.4489541604185</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>638.4633185028607</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>638.4633185028607</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1229.191061790554</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1671.125910046706</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2217.624696005301</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2386.778760758358</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2386.778760758358</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2386.778760758358</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2386.778760758358</v>
+        <v>2194.134594702725</v>
       </c>
       <c r="V8" t="n">
-        <v>2386.778760758358</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W8" t="n">
-        <v>1981.923306169391</v>
+        <v>1426.662190047585</v>
       </c>
       <c r="X8" t="n">
-        <v>1966.821246789106</v>
+        <v>1411.5601306673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1962.575527129163</v>
+        <v>1407.314411007357</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>553.90732020646</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>447.4508590431022</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>352.3605701896555</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>258.2401555166092</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>174.8563171327708</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>89.47122739895468</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>47.73557521516715</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J9" t="n">
-        <v>47.73557521516715</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>47.73557521516715</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>47.73557521516715</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>47.73557521516715</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>462.3358766798672</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1053.063619967561</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1053.063619967561</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1593.802558599636</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1710.975336693976</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1647.519899142359</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1517.341255472961</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1341.004708472929</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.887190534928</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>956.5644362681223</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>801.6970005070024</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>675.2112212862231</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>814.329850000648</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>814.329850000648</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>648.4518572021707</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="E10" t="n">
-        <v>478.6938534529079</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>301.9867994146641</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>136.3955244404918</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>136.3955244404918</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>47.73557521516715</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>134.315260379857</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>409.0737149509926</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>827.2835967189537</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1286.767463899867</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.409842697902</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1871.079091923684</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.585985894026</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2386.778760758358</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2386.778760758358</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2386.778760758358</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2140.899314336813</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1862.466313589918</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1750.986298485823</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.959894072114</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1233.568139405527</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1006.148468719635</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2132.367007285921</v>
+        <v>2081.397323829633</v>
       </c>
       <c r="C11" t="n">
-        <v>1694.224534469344</v>
+        <v>2081.397323829633</v>
       </c>
       <c r="D11" t="n">
-        <v>1258.314749643789</v>
+        <v>1645.487539004077</v>
       </c>
       <c r="E11" t="n">
-        <v>1213.142384360634</v>
+        <v>1211.712794162372</v>
       </c>
       <c r="F11" t="n">
-        <v>785.2749547698422</v>
+        <v>783.8453645715798</v>
       </c>
       <c r="G11" t="n">
-        <v>383.8771233931061</v>
+        <v>382.4475331948437</v>
       </c>
       <c r="H11" t="n">
-        <v>94.74696883632224</v>
+        <v>93.31737863805994</v>
       </c>
       <c r="I11" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519994</v>
       </c>
       <c r="J11" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519994</v>
       </c>
       <c r="K11" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519994</v>
       </c>
       <c r="L11" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519994</v>
       </c>
       <c r="M11" t="n">
-        <v>1066.635597621311</v>
+        <v>995.1560877081963</v>
       </c>
       <c r="N11" t="n">
-        <v>2192.366581057759</v>
+        <v>2120.887071144643</v>
       </c>
       <c r="O11" t="n">
-        <v>3172.546247628065</v>
+        <v>3101.06673771495</v>
       </c>
       <c r="P11" t="n">
-        <v>4000.85612246146</v>
+        <v>3929.376612548346</v>
       </c>
       <c r="Q11" t="n">
-        <v>4547.354908420056</v>
+        <v>4475.875398506941</v>
       </c>
       <c r="R11" t="n">
-        <v>4716.508973173112</v>
+        <v>4645.029463259997</v>
       </c>
       <c r="S11" t="n">
-        <v>4632.857099356949</v>
+        <v>4561.377589443834</v>
       </c>
       <c r="T11" t="n">
-        <v>4412.789872229989</v>
+        <v>4341.310362316873</v>
       </c>
       <c r="U11" t="n">
-        <v>4153.567569547005</v>
+        <v>4082.088059633889</v>
       </c>
       <c r="V11" t="n">
-        <v>3790.950619480832</v>
+        <v>3719.471109567716</v>
       </c>
       <c r="W11" t="n">
-        <v>3386.095164891865</v>
+        <v>3314.615654978749</v>
       </c>
       <c r="X11" t="n">
-        <v>2966.952701471176</v>
+        <v>2895.47319155806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2558.666577770829</v>
+        <v>2507.69689431454</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>600.501924454755</v>
+        <v>599.0723342564927</v>
       </c>
       <c r="C12" t="n">
-        <v>494.0454632913973</v>
+        <v>492.615873093135</v>
       </c>
       <c r="D12" t="n">
-        <v>398.9551744379506</v>
+        <v>397.5255842396883</v>
       </c>
       <c r="E12" t="n">
-        <v>304.8347597649043</v>
+        <v>303.405169566642</v>
       </c>
       <c r="F12" t="n">
-        <v>221.4509213810659</v>
+        <v>220.0213311828036</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0658316472498</v>
+        <v>134.6362414489875</v>
       </c>
       <c r="H12" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519994</v>
       </c>
       <c r="I12" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519994</v>
       </c>
       <c r="J12" t="n">
-        <v>94.33017946346224</v>
+        <v>417.4589142314123</v>
       </c>
       <c r="K12" t="n">
-        <v>94.33017946346224</v>
+        <v>417.4589142314123</v>
       </c>
       <c r="L12" t="n">
-        <v>94.33017946346224</v>
+        <v>417.4589142314123</v>
       </c>
       <c r="M12" t="n">
-        <v>94.33017946346224</v>
+        <v>417.4589142314123</v>
       </c>
       <c r="N12" t="n">
-        <v>94.33017946346224</v>
+        <v>417.4589142314123</v>
       </c>
       <c r="O12" t="n">
-        <v>279.9350577366578</v>
+        <v>417.4589142314123</v>
       </c>
       <c r="P12" t="n">
-        <v>1099.658224215856</v>
+        <v>1098.228634017594</v>
       </c>
       <c r="Q12" t="n">
-        <v>1640.397162847931</v>
+        <v>1638.967572649669</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.569940942271</v>
+        <v>1756.140350744009</v>
       </c>
       <c r="S12" t="n">
-        <v>1694.114503390654</v>
+        <v>1692.684913192392</v>
       </c>
       <c r="T12" t="n">
-        <v>1563.935859721256</v>
+        <v>1562.506269522994</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.599312721224</v>
+        <v>1386.169722522962</v>
       </c>
       <c r="V12" t="n">
-        <v>1188.481794783223</v>
+        <v>1187.052204584961</v>
       </c>
       <c r="W12" t="n">
-        <v>1003.159040516417</v>
+        <v>1001.729450318155</v>
       </c>
       <c r="X12" t="n">
-        <v>848.2916047552974</v>
+        <v>846.8620145570351</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.8058255345181</v>
+        <v>720.3762353362558</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>944.8262165403934</v>
+        <v>943.3966263421311</v>
       </c>
       <c r="C13" t="n">
-        <v>772.2645050236184</v>
+        <v>770.834914825356</v>
       </c>
       <c r="D13" t="n">
-        <v>606.3865122251411</v>
+        <v>604.9569220268788</v>
       </c>
       <c r="E13" t="n">
-        <v>436.6285084758783</v>
+        <v>435.198918277616</v>
       </c>
       <c r="F13" t="n">
-        <v>259.9214544376346</v>
+        <v>258.4918642393723</v>
       </c>
       <c r="G13" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519987</v>
       </c>
       <c r="H13" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519994</v>
       </c>
       <c r="I13" t="n">
-        <v>94.33017946346224</v>
+        <v>92.90058926519994</v>
       </c>
       <c r="J13" t="n">
-        <v>180.9098646281521</v>
+        <v>179.4802744298898</v>
       </c>
       <c r="K13" t="n">
-        <v>455.6683191992877</v>
+        <v>454.2387290010254</v>
       </c>
       <c r="L13" t="n">
-        <v>873.8782009672487</v>
+        <v>872.4486107689864</v>
       </c>
       <c r="M13" t="n">
-        <v>1333.362068148162</v>
+        <v>1331.9324779499</v>
       </c>
       <c r="N13" t="n">
-        <v>1775.620871305806</v>
+        <v>1774.191281107544</v>
       </c>
       <c r="O13" t="n">
-        <v>2195.290120531588</v>
+        <v>2193.860530333325</v>
       </c>
       <c r="P13" t="n">
-        <v>2542.79701450193</v>
+        <v>2541.367424303667</v>
       </c>
       <c r="Q13" t="n">
-        <v>2710.989789366262</v>
+        <v>2709.560199168</v>
       </c>
       <c r="R13" t="n">
-        <v>2710.989789366262</v>
+        <v>2709.560199168</v>
       </c>
       <c r="S13" t="n">
-        <v>2551.748420664258</v>
+        <v>2691.321030125315</v>
       </c>
       <c r="T13" t="n">
-        <v>2305.868974242714</v>
+        <v>2445.44158370377</v>
       </c>
       <c r="U13" t="n">
-        <v>2027.435973495819</v>
+        <v>2167.008582956876</v>
       </c>
       <c r="V13" t="n">
-        <v>1881.482665025568</v>
+        <v>1880.053074827306</v>
       </c>
       <c r="W13" t="n">
-        <v>1609.45626061186</v>
+        <v>1608.026670413597</v>
       </c>
       <c r="X13" t="n">
-        <v>1364.064505945272</v>
+        <v>1362.63491574701</v>
       </c>
       <c r="Y13" t="n">
-        <v>1136.64483525938</v>
+        <v>1135.215245061118</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2216.018881102084</v>
+        <v>2229.979503763753</v>
       </c>
       <c r="C14" t="n">
-        <v>1777.876408285507</v>
+        <v>1791.837030947176</v>
       </c>
       <c r="D14" t="n">
-        <v>1341.966623459952</v>
+        <v>1648.452589759036</v>
       </c>
       <c r="E14" t="n">
-        <v>908.1918786182468</v>
+        <v>1214.677844917331</v>
       </c>
       <c r="F14" t="n">
-        <v>480.3244490274543</v>
+        <v>786.8104153265388</v>
       </c>
       <c r="G14" t="n">
-        <v>94.74696883632224</v>
+        <v>385.4125839498026</v>
       </c>
       <c r="H14" t="n">
-        <v>94.74696883632224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="K14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="L14" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="M14" t="n">
-        <v>1066.635597621311</v>
+        <v>1164.248094099144</v>
       </c>
       <c r="N14" t="n">
-        <v>2192.366581057759</v>
+        <v>2289.979077535591</v>
       </c>
       <c r="O14" t="n">
-        <v>3172.546247628065</v>
+        <v>3270.158744105897</v>
       </c>
       <c r="P14" t="n">
-        <v>4000.85612246146</v>
+        <v>4098.468618939293</v>
       </c>
       <c r="Q14" t="n">
-        <v>4547.354908420056</v>
+        <v>4644.967404897888</v>
       </c>
       <c r="R14" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="S14" t="n">
-        <v>4716.508973173112</v>
+        <v>4730.469595834781</v>
       </c>
       <c r="T14" t="n">
-        <v>4496.441746046151</v>
+        <v>4510.40236870782</v>
       </c>
       <c r="U14" t="n">
-        <v>4237.219443363168</v>
+        <v>4251.180066024836</v>
       </c>
       <c r="V14" t="n">
-        <v>3874.602493296994</v>
+        <v>3888.563115958663</v>
       </c>
       <c r="W14" t="n">
-        <v>3469.747038708028</v>
+        <v>3483.707661369696</v>
       </c>
       <c r="X14" t="n">
-        <v>3050.604575287338</v>
+        <v>3064.565197949007</v>
       </c>
       <c r="Y14" t="n">
-        <v>2642.318451586992</v>
+        <v>2656.27907424866</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C15" t="n">
-        <v>494.0454632913973</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D15" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E15" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F15" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I15" t="n">
-        <v>94.33017946346224</v>
+        <v>96.318629108823</v>
       </c>
       <c r="J15" t="n">
-        <v>94.33017946346224</v>
+        <v>420.8769540750353</v>
       </c>
       <c r="K15" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="L15" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="M15" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="N15" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="O15" t="n">
-        <v>279.9350577366578</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="P15" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q15" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S15" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T15" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V15" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W15" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X15" t="n">
-        <v>848.2916047552974</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1173.388340075343</v>
+        <v>914.1189292628006</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.826628558568</v>
+        <v>914.1189292628006</v>
       </c>
       <c r="D16" t="n">
-        <v>834.9486357600911</v>
+        <v>748.2409364643233</v>
       </c>
       <c r="E16" t="n">
-        <v>665.1906320108283</v>
+        <v>578.4829327150605</v>
       </c>
       <c r="F16" t="n">
-        <v>488.4835779725847</v>
+        <v>401.7758786768167</v>
       </c>
       <c r="G16" t="n">
-        <v>322.8923029984124</v>
+        <v>236.1846037026444</v>
       </c>
       <c r="H16" t="n">
-        <v>182.9901286887869</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I16" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J16" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K16" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L16" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M16" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N16" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O16" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P16" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q16" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R16" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S16" t="n">
-        <v>2710.989789366262</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T16" t="n">
-        <v>2675.433297436982</v>
+        <v>2307.82122417227</v>
       </c>
       <c r="U16" t="n">
-        <v>2397.000296690087</v>
+        <v>2137.730885877545</v>
       </c>
       <c r="V16" t="n">
-        <v>2110.044788560518</v>
+        <v>1850.775377747975</v>
       </c>
       <c r="W16" t="n">
-        <v>1838.01838414681</v>
+        <v>1578.748973334267</v>
       </c>
       <c r="X16" t="n">
-        <v>1592.626629480222</v>
+        <v>1333.357218667679</v>
       </c>
       <c r="Y16" t="n">
-        <v>1365.206958794331</v>
+        <v>1105.937547981788</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2520.552597471612</v>
+        <v>2522.504847401168</v>
       </c>
       <c r="C17" t="n">
-        <v>2082.410124655035</v>
+        <v>2084.362374584592</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.500339829479</v>
+        <v>1648.452589759036</v>
       </c>
       <c r="E17" t="n">
-        <v>1212.725594987774</v>
+        <v>1214.677844917331</v>
       </c>
       <c r="F17" t="n">
-        <v>784.8581653969823</v>
+        <v>786.810415326539</v>
       </c>
       <c r="G17" t="n">
-        <v>383.4603340202466</v>
+        <v>385.4125839498026</v>
       </c>
       <c r="H17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="K17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="L17" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="M17" t="n">
-        <v>1251.378014674013</v>
+        <v>1164.248094099144</v>
       </c>
       <c r="N17" t="n">
-        <v>2361.520645810815</v>
+        <v>2289.979077535591</v>
       </c>
       <c r="O17" t="n">
-        <v>3341.700312381121</v>
+        <v>3270.158744105897</v>
       </c>
       <c r="P17" t="n">
-        <v>4170.010187214517</v>
+        <v>4098.468618939293</v>
       </c>
       <c r="Q17" t="n">
-        <v>4716.508973173112</v>
+        <v>4644.967404897888</v>
       </c>
       <c r="R17" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="S17" t="n">
-        <v>4658.425739476467</v>
+        <v>4730.469595834781</v>
       </c>
       <c r="T17" t="n">
-        <v>4438.358512349505</v>
+        <v>4510.40236870782</v>
       </c>
       <c r="U17" t="n">
-        <v>4179.136209666522</v>
+        <v>4510.40236870782</v>
       </c>
       <c r="V17" t="n">
-        <v>4179.136209666522</v>
+        <v>4181.088459596079</v>
       </c>
       <c r="W17" t="n">
-        <v>3774.280755077555</v>
+        <v>3776.233005007112</v>
       </c>
       <c r="X17" t="n">
-        <v>3355.138291656866</v>
+        <v>3357.090541586423</v>
       </c>
       <c r="Y17" t="n">
-        <v>2946.852167956519</v>
+        <v>2948.804417886076</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C18" t="n">
-        <v>494.0454632913973</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D18" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E18" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F18" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H18" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I18" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J18" t="n">
-        <v>94.33017946346224</v>
+        <v>446.9044275196888</v>
       </c>
       <c r="K18" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="L18" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="M18" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="N18" t="n">
-        <v>94.33017946346224</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="O18" t="n">
-        <v>279.9350577366578</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="P18" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q18" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R18" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S18" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T18" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U18" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V18" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W18" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X18" t="n">
-        <v>848.2916047552974</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y18" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1084.728390850019</v>
+        <v>784.3584455160028</v>
       </c>
       <c r="C19" t="n">
-        <v>912.1666793332439</v>
+        <v>611.7967339992277</v>
       </c>
       <c r="D19" t="n">
-        <v>746.2886865347666</v>
+        <v>445.9187412007504</v>
       </c>
       <c r="E19" t="n">
-        <v>576.5306827855038</v>
+        <v>276.1607374514876</v>
       </c>
       <c r="F19" t="n">
-        <v>399.82362874726</v>
+        <v>99.45368341324385</v>
       </c>
       <c r="G19" t="n">
-        <v>234.2323537730877</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="H19" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I19" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J19" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K19" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L19" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M19" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N19" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O19" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P19" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q19" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R19" t="n">
-        <v>2710.989789366262</v>
+        <v>2691.52421800119</v>
       </c>
       <c r="S19" t="n">
-        <v>2710.989789366262</v>
+        <v>2532.282849299187</v>
       </c>
       <c r="T19" t="n">
-        <v>2465.110342944717</v>
+        <v>2286.403402877642</v>
       </c>
       <c r="U19" t="n">
-        <v>2186.677342197822</v>
+        <v>2007.970402130747</v>
       </c>
       <c r="V19" t="n">
-        <v>1899.721834068253</v>
+        <v>1721.014894001178</v>
       </c>
       <c r="W19" t="n">
-        <v>1627.695429654544</v>
+        <v>1448.988489587469</v>
       </c>
       <c r="X19" t="n">
-        <v>1503.966680254898</v>
+        <v>1203.596734920882</v>
       </c>
       <c r="Y19" t="n">
-        <v>1276.547009569006</v>
+        <v>976.17706423499</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2520.552597471612</v>
+        <v>2229.979503763753</v>
       </c>
       <c r="C20" t="n">
-        <v>2082.410124655035</v>
+        <v>1791.837030947176</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.500339829479</v>
+        <v>1355.927246121621</v>
       </c>
       <c r="E20" t="n">
-        <v>1212.725594987774</v>
+        <v>922.1525012799157</v>
       </c>
       <c r="F20" t="n">
-        <v>784.8581653969823</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G20" t="n">
-        <v>383.460334020246</v>
+        <v>385.8293733226627</v>
       </c>
       <c r="H20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.69921876587888</v>
       </c>
       <c r="I20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="K20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="L20" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="M20" t="n">
-        <v>1066.635597621311</v>
+        <v>1164.248094099144</v>
       </c>
       <c r="N20" t="n">
-        <v>2192.366581057759</v>
+        <v>2289.979077535591</v>
       </c>
       <c r="O20" t="n">
-        <v>3172.546247628065</v>
+        <v>3270.158744105897</v>
       </c>
       <c r="P20" t="n">
-        <v>4000.85612246146</v>
+        <v>4098.468618939293</v>
       </c>
       <c r="Q20" t="n">
-        <v>4547.354908420056</v>
+        <v>4644.967404897888</v>
       </c>
       <c r="R20" t="n">
-        <v>4716.508973173112</v>
+        <v>4814.121469650944</v>
       </c>
       <c r="S20" t="n">
-        <v>4716.508973173112</v>
+        <v>4730.469595834781</v>
       </c>
       <c r="T20" t="n">
-        <v>4541.753159732695</v>
+        <v>4510.40236870782</v>
       </c>
       <c r="U20" t="n">
-        <v>4541.753159732695</v>
+        <v>4251.180066024836</v>
       </c>
       <c r="V20" t="n">
-        <v>4179.136209666522</v>
+        <v>3888.563115958663</v>
       </c>
       <c r="W20" t="n">
-        <v>3774.280755077555</v>
+        <v>3483.707661369696</v>
       </c>
       <c r="X20" t="n">
-        <v>3355.138291656866</v>
+        <v>3064.565197949007</v>
       </c>
       <c r="Y20" t="n">
-        <v>2946.852167956519</v>
+        <v>2656.27907424866</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>600.501924454755</v>
+        <v>602.4541743843117</v>
       </c>
       <c r="C21" t="n">
-        <v>494.0454632913973</v>
+        <v>495.997713220954</v>
       </c>
       <c r="D21" t="n">
-        <v>398.9551744379506</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E21" t="n">
-        <v>304.8347597649043</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F21" t="n">
-        <v>221.4509213810659</v>
+        <v>223.4031713106226</v>
       </c>
       <c r="G21" t="n">
-        <v>136.0658316472498</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H21" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="J21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="K21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="L21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="M21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="N21" t="n">
-        <v>94.33017946346224</v>
+        <v>122.3461025534765</v>
       </c>
       <c r="O21" t="n">
-        <v>279.9350577366578</v>
+        <v>281.8873076662144</v>
       </c>
       <c r="P21" t="n">
-        <v>1099.658224215856</v>
+        <v>1101.610474145413</v>
       </c>
       <c r="Q21" t="n">
-        <v>1640.397162847931</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R21" t="n">
-        <v>1757.569940942271</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S21" t="n">
-        <v>1694.114503390654</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T21" t="n">
-        <v>1563.935859721256</v>
+        <v>1565.888109650813</v>
       </c>
       <c r="U21" t="n">
-        <v>1387.599312721224</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V21" t="n">
-        <v>1188.481794783223</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W21" t="n">
-        <v>1003.159040516417</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X21" t="n">
-        <v>848.2916047552974</v>
+        <v>850.2438546848541</v>
       </c>
       <c r="Y21" t="n">
-        <v>721.8058255345181</v>
+        <v>723.7580754640749</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>944.8262165403934</v>
+        <v>946.7784664699502</v>
       </c>
       <c r="C22" t="n">
-        <v>772.2645050236183</v>
+        <v>774.2167549531752</v>
       </c>
       <c r="D22" t="n">
-        <v>606.3865122251411</v>
+        <v>608.3387621546979</v>
       </c>
       <c r="E22" t="n">
-        <v>436.6285084758783</v>
+        <v>438.5807584054351</v>
       </c>
       <c r="F22" t="n">
-        <v>259.9214544376346</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G22" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="H22" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="I22" t="n">
-        <v>94.33017946346224</v>
+        <v>96.28242939301889</v>
       </c>
       <c r="J22" t="n">
-        <v>180.9098646281521</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K22" t="n">
-        <v>455.6683191992877</v>
+        <v>457.6205691288444</v>
       </c>
       <c r="L22" t="n">
-        <v>873.8782009672487</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M22" t="n">
-        <v>1333.362068148162</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N22" t="n">
-        <v>1775.620871305806</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O22" t="n">
-        <v>2195.290120531588</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P22" t="n">
-        <v>2542.79701450193</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q22" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R22" t="n">
-        <v>2710.989789366262</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S22" t="n">
-        <v>2551.748420664258</v>
+        <v>2694.702870253134</v>
       </c>
       <c r="T22" t="n">
-        <v>2305.868974242714</v>
+        <v>2448.823423831589</v>
       </c>
       <c r="U22" t="n">
-        <v>2027.435973495819</v>
+        <v>2170.390423084695</v>
       </c>
       <c r="V22" t="n">
-        <v>1740.480465366249</v>
+        <v>1883.434914955125</v>
       </c>
       <c r="W22" t="n">
-        <v>1609.45626061186</v>
+        <v>1611.408510541417</v>
       </c>
       <c r="X22" t="n">
-        <v>1364.064505945272</v>
+        <v>1366.016755874829</v>
       </c>
       <c r="Y22" t="n">
-        <v>1136.64483525938</v>
+        <v>1138.597085188937</v>
       </c>
     </row>
     <row r="23">
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>982.1554751127505</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>809.5937635959756</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>809.5937635959756</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.121292818146</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6300,22 +6300,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
         <v>287.8657185439749</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1077.292364523334</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>904.7306530065586</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>738.8526602080813</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>569.0946564588185</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>392.3876024205746</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
         <v>242.1630145804051</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V28" t="n">
-        <v>2013.948813008508</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>1741.9224085948</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1496.530653928212</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1269.110983242321</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="29">
@@ -6537,22 +6537,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O30" t="n">
         <v>287.8657185439749</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>462.79833832588</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876361</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752035</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.60800300514</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6774,22 +6774,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N33" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O33" t="n">
         <v>287.8657185439749</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>875.538833774558</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>702.9771222577831</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2099.150790389303</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1812.195282259733</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1540.168877846025</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.777123179437</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1067.357452493545</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.648111803009</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961501</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835855</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197253</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581783</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>97.56670367581783</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M35" t="n">
-        <v>1254.614538886369</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>2380.345522322816</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3360.525188893122</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4188.835063726518</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037835</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790891</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387605</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673519</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403412</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750115</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574024</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566211</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278741</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>97.56670367581783</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>97.56670367581783</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>97.56670367581783</v>
+        <v>809.0580335016145</v>
       </c>
       <c r="L36" t="n">
-        <v>97.56670367581783</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>97.56670367581783</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>97.56670367581783</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>283.1715819490133</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397569</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936699</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080688</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716823</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463147</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850155</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882663</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581783</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758677</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823633</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>925.3347848856844</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694962</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361805</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461497</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579745</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290619</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.47362528195</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.440331947932</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231239</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230406</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976695</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703679</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483853</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803009</v>
+        <v>2027.925596445153</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397473</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333644</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835848</v>
+        <v>765.7936465207283</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197248</v>
+        <v>376.2024849218683</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581717</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581783</v>
+        <v>137.028796385685</v>
       </c>
       <c r="M38" t="n">
-        <v>1254.614538886369</v>
+        <v>1294.076631596236</v>
       </c>
       <c r="N38" t="n">
-        <v>2380.345522322816</v>
+        <v>2419.807615032683</v>
       </c>
       <c r="O38" t="n">
-        <v>3360.525188893122</v>
+        <v>3399.987281602989</v>
       </c>
       <c r="P38" t="n">
-        <v>4188.835063726518</v>
+        <v>4228.297156436385</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037835</v>
+        <v>4774.79594239498</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790891</v>
+        <v>4943.950007148036</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387605</v>
+        <v>4872.104803109749</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760663</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855556</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567259</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756168</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113355</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.754300190885</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342535</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708958</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174491</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444028</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605644</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267483</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581783</v>
+        <v>124.9426733034183</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581783</v>
+        <v>449.5009982696307</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="O39" t="n">
-        <v>283.1715819490133</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.11876162177</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070153</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400723</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347959</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140166</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>995.3999321779521</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936672</v>
+        <v>834.6448904390531</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080659</v>
+        <v>680.5735674184518</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716793</v>
+        <v>522.6222334470654</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463117</v>
+        <v>357.7218491866979</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850155</v>
+        <v>203.9372439904012</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882663</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569469</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773789</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946363</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024845</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231787</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506864</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526502</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440131</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2808.112346440131</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2660.677647516004</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2426.604870872335</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2159.978539903316</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1884.829701551623</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1624.60996691579</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1391.024882027079</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1175.411881119063</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483853</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445152</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397473</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333644</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835852</v>
+        <v>765.7936465207276</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218683</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581783</v>
+        <v>137.028796385685</v>
       </c>
       <c r="L41" t="n">
-        <v>617.9127589871351</v>
+        <v>137.028796385685</v>
       </c>
       <c r="M41" t="n">
-        <v>1774.960594197686</v>
+        <v>1294.076631596236</v>
       </c>
       <c r="N41" t="n">
-        <v>2900.691577634133</v>
+        <v>2419.807615032683</v>
       </c>
       <c r="O41" t="n">
-        <v>3880.871244204439</v>
+        <v>3399.987281602989</v>
       </c>
       <c r="P41" t="n">
-        <v>4709.181119037835</v>
+        <v>4228.297156436385</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037835</v>
+        <v>4774.79594239498</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790891</v>
+        <v>4943.950007148036</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>4872.104803109749</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760663</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855556</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567259</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756169</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113355</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.754300190885</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342535</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708958</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174491</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444028</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605644</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267483</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581783</v>
+        <v>124.9426733034183</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581783</v>
+        <v>449.5009982696307</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581783</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="O42" t="n">
-        <v>283.1715819490133</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.11876162177</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070153</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400723</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347959</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140166</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>825.033738922301</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080663</v>
+        <v>670.9624159016998</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>513.0110819303131</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>348.1106976699455</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>194.3260924736496</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882663</v>
+        <v>175.7322795904093</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581783</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569469</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773789</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946363</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024845</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231786</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506864</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526502</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440131</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2798.501194923379</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999251</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.993719355583</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386564</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.218550034871</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399038</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510327</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602311</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483853</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445153</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397473</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333645</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207285</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218683</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581785</v>
+        <v>137.028796385685</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.614538886369</v>
+        <v>1294.076631596236</v>
       </c>
       <c r="N44" t="n">
-        <v>2380.345522322816</v>
+        <v>2419.807615032683</v>
       </c>
       <c r="O44" t="n">
-        <v>3360.525188893122</v>
+        <v>3399.987281602989</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4228.297156436385</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4774.79594239498</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148036</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4872.104803109749</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760663</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855556</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567259</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756168</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113355</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.754300190885</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342535</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708958</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174491</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444028</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605644</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>140.6146523267483</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581785</v>
+        <v>124.9426733034183</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581785</v>
+        <v>449.5009982696307</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581785</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581785</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581785</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581785</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="O45" t="n">
-        <v>283.1715819490133</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895355</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.11876162177</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070153</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400723</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347959</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140166</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>995.399932177952</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>834.644890439053</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>680.5735674184518</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>522.6222334470651</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>357.7218491866975</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850157</v>
+        <v>203.9372439904007</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882663</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296072</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569469</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823633</v>
+        <v>483.3605739773789</v>
       </c>
       <c r="L46" t="n">
-        <v>925.3347848856844</v>
+        <v>913.1421727946363</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024845</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694962</v>
+        <v>1838.028277231787</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.269243506864</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526502</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440131</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2808.112346440131</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2660.677647516004</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2426.604870872335</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2159.978539903316</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1884.829701551623</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1624.60996691579</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1391.024882027079</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1175.411881119063</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7988,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>57.99715944515106</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,16 +8225,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,22 +8298,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8459,16 +8459,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>596.6946901895894</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>596.6946901895894</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>446.3988366223759</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,13 +8526,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>418.7881832976769</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>596.6946901895894</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>166.305433129329</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>982.1266850079285</v>
+        <v>911.3691903464611</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8766,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>982.1266850079285</v>
+        <v>1078.753196672854</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.03656536949911526</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,10 +9170,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1078.753196672854</v>
       </c>
       <c r="N17" t="n">
-        <v>1121.356193067477</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>982.1266850079285</v>
+        <v>1078.753196672854</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371091</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9729,10 +9729,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -10422,10 +10422,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10440,7 +10440,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10604,7 +10604,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>525.6020760720376</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10659,16 +10659,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>38.53514771992353</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10841,7 +10841,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>525.6020760720376</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11060,10 +11060,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>38.53514771992353</v>
       </c>
       <c r="L41" t="n">
-        <v>525.6020760720377</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11078,7 +11078,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>38.53514771992353</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11312,7 +11312,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>810.2597416021408</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>384.7163557629649</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>20.30472819225895</v>
       </c>
     </row>
     <row r="12">
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>289.6000902010413</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15.66214767374805</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>107.2592358276474</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>25.31295371832277</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>32.97001054488823</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>290.0127116801723</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>44.85829954967974</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>32.9526776417184</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627264</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>15.21302026266278</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.7165723808141</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>63.14631452530483</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>22.80688807746584</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>76.0847466529741</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.515040001584527</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>108.406674732024</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>22.80688807746635</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>76.0847466529741</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.515040001584527</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>719539.5352169995</v>
+        <v>711535.2251008458</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>719539.5352169994</v>
+        <v>730470.2298170353</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>719539.5352169994</v>
+        <v>730470.2298170353</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>719539.5352169994</v>
+        <v>730470.2298170353</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>763943.4969991609</v>
+        <v>763943.4969991607</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777413.6138410924</v>
+        <v>763943.4969991609</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777413.6138410924</v>
+        <v>773641.061560418</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>777413.6138410924</v>
+        <v>773641.061560418</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777413.6138410924</v>
+        <v>773641.061560418</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26314,22 @@
         <v>160844.1959671225</v>
       </c>
       <c r="C2" t="n">
-        <v>160844.1959671226</v>
+        <v>160844.1959671225</v>
       </c>
       <c r="D2" t="n">
         <v>160844.1959671225</v>
       </c>
       <c r="E2" t="n">
-        <v>148870.248665586</v>
+        <v>147214.1845036233</v>
       </c>
       <c r="F2" t="n">
-        <v>148870.248665586</v>
+        <v>151131.7716862831</v>
       </c>
       <c r="G2" t="n">
-        <v>148870.248665586</v>
+        <v>151131.7716862831</v>
       </c>
       <c r="H2" t="n">
-        <v>148870.2486655861</v>
+        <v>151131.7716862831</v>
       </c>
       <c r="I2" t="n">
         <v>158057.2752412056</v>
@@ -26344,16 +26344,16 @@
         <v>158057.2752412056</v>
       </c>
       <c r="M2" t="n">
-        <v>160844.1959671225</v>
+        <v>158057.2752412056</v>
       </c>
       <c r="N2" t="n">
-        <v>160844.1959671225</v>
+        <v>160063.667909052</v>
       </c>
       <c r="O2" t="n">
-        <v>160844.1959671225</v>
+        <v>160063.6679090518</v>
       </c>
       <c r="P2" t="n">
-        <v>160844.1959671226</v>
+        <v>160063.6679090519</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53552.24939212214</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>173901.5468405932</v>
+        <v>147420.5464117502</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12112.31405579293</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26361.61565678307</v>
+        <v>19872.31248781268</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43632.59295915264</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>143510.6200345138</v>
+        <v>123042.5210430566</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9350.882464077848</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>129712.5371811799</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>759.4645886419041</v>
+        <v>751.016143779325</v>
       </c>
       <c r="F4" t="n">
-        <v>759.4645886419041</v>
+        <v>771.0017941346963</v>
       </c>
       <c r="G4" t="n">
-        <v>759.4645886419044</v>
+        <v>771.0017941346963</v>
       </c>
       <c r="H4" t="n">
-        <v>759.4645886419041</v>
+        <v>771.0017941346964</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26448,16 +26448,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>16466.62778780244</v>
+        <v>806.3323907826432</v>
       </c>
       <c r="N4" t="n">
-        <v>16466.62778780236</v>
+        <v>12085.91225991061</v>
       </c>
       <c r="O4" t="n">
-        <v>16466.62778780236</v>
+        <v>12085.91225991056</v>
       </c>
       <c r="P4" t="n">
-        <v>16466.62778780236</v>
+        <v>12085.91225991056</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>69906.63716352703</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71690.93639223131</v>
+        <v>70604.44784155196</v>
       </c>
       <c r="F5" t="n">
-        <v>71690.93639223131</v>
+        <v>73174.64633869435</v>
       </c>
       <c r="G5" t="n">
-        <v>71690.93639223131</v>
+        <v>73174.64633869435</v>
       </c>
       <c r="H5" t="n">
-        <v>71690.93639223131</v>
+        <v>73174.64633869435</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.6147260897</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.6147260897</v>
+        <v>76130.68928099085</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.6147260897</v>
+        <v>76130.68928099085</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099085</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-209939.9860995695</v>
+        <v>-250572.4333969307</v>
       </c>
       <c r="C6" t="n">
-        <v>-67748.68543985955</v>
+        <v>-26872.7348128858</v>
       </c>
       <c r="D6" t="n">
-        <v>-92327.22776970654</v>
+        <v>-26872.73481288577</v>
       </c>
       <c r="E6" t="n">
-        <v>-97481.69915588034</v>
+        <v>-71675.40932232066</v>
       </c>
       <c r="F6" t="n">
-        <v>76419.84768471282</v>
+        <v>64992.87262865416</v>
       </c>
       <c r="G6" t="n">
-        <v>76419.84768471279</v>
+        <v>77105.18668444706</v>
       </c>
       <c r="H6" t="n">
-        <v>76419.84768471285</v>
+        <v>77105.18668444706</v>
       </c>
       <c r="I6" t="n">
-        <v>53171.08858784747</v>
+        <v>59637.16741743517</v>
       </c>
       <c r="J6" t="n">
-        <v>-31481.76110035969</v>
+        <v>-95141.86881245824</v>
       </c>
       <c r="K6" t="n">
-        <v>79532.7042446305</v>
+        <v>79509.47990524786</v>
       </c>
       <c r="L6" t="n">
-        <v>35900.11128547785</v>
+        <v>79509.47990524786</v>
       </c>
       <c r="M6" t="n">
-        <v>-74648.66658128344</v>
+        <v>-43533.04113780878</v>
       </c>
       <c r="N6" t="n">
-        <v>68861.95345323054</v>
+        <v>62489.6795035888</v>
       </c>
       <c r="O6" t="n">
-        <v>68861.95345323044</v>
+        <v>71840.56196766651</v>
       </c>
       <c r="P6" t="n">
-        <v>68861.95345323056</v>
+        <v>71840.5619676666</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>596.6946901895894</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1179.127243293278</v>
+        <v>1161.257365814999</v>
       </c>
       <c r="F4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="G4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="H4" t="n">
-        <v>1179.127243293278</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26820,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787009</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787009</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787009</v>
       </c>
     </row>
   </sheetData>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>172.398832669485</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>582.4325531036886</v>
+        <v>493.7421592071423</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>42.2730015977361</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>99.13326009146726</v>
+        <v>74.73013597200929</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.398832669485</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>523.7558456666661</v>
+        <v>493.7421592071421</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>172.398832669485</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>582.4325531036886</v>
+        <v>493.7421592071423</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>42.2730015977361</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>394.8256131008555</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>289.9811395907775</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>65.48800580459445</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>137.1246752512656</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>198.9097623463288</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>182.8469633077071</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>39.52293549722776</v>
       </c>
       <c r="V7" t="n">
-        <v>245.9264697221321</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>244.6825101390855</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27904,13 +27904,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>3.329665100429537</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>135.0797604404444</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>173.7207380952194</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874747</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009835</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009731</v>
       </c>
     </row>
   </sheetData>
@@ -34708,16 +34708,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>57.99715944515106</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,16 +34945,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,7 +35009,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8679565343714</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>596.6946901895894</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>596.6946901895894</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>446.3988366223759</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,13 +35246,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,10 +35261,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>418.7881832976769</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>596.6946901895894</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>166.305433129329</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35416,7 +35416,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>982.1266850079285</v>
+        <v>911.3691903464611</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>687.6461816022033</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,7 +35653,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>982.1266850079285</v>
+        <v>1078.753196672854</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.03656536949911526</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35820,7 +35820,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35890,10 +35890,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>1078.753196672854</v>
       </c>
       <c r="N17" t="n">
-        <v>1121.356193067477</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36127,7 +36127,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>982.1266850079285</v>
+        <v>1078.753196672854</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234298</v>
+        <v>161.1527324371091</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36294,7 +36294,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,10 +36449,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36686,7 +36686,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -36771,7 +36771,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P30" t="n">
         <v>828.0031984638366</v>
@@ -37002,7 +37002,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37142,10 +37142,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37160,7 +37160,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>828.0031984638366</v>
@@ -37309,7 +37309,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37324,7 +37324,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>525.6020760720376</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>301.5463146682411</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,10 +37397,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778282</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>293.769502834844</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.669934346789</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900419</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>38.53514771992353</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37561,7 +37561,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>525.6020760720376</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917799</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761939</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881388</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446559</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>458.414666875698</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900421</v>
+        <v>435.5969356313915</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966045</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>181.5802948622513</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>38.53514771992353</v>
       </c>
       <c r="L41" t="n">
-        <v>525.6020760720377</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37798,7 +37798,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>170.862691669754</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917799</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761939</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881388</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446559</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756978</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900421</v>
+        <v>435.5969356313917</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966045</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>181.5802948622513</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>38.53514771992353</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38032,7 +38032,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>810.2597416021408</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917799</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348442</v>
+        <v>289.2223955761939</v>
       </c>
       <c r="L46" t="n">
-        <v>438.669934346789</v>
+        <v>434.1228270881388</v>
       </c>
       <c r="M46" t="n">
-        <v>480.360828703306</v>
+        <v>475.8137214446559</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>458.414666875698</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900419</v>
+        <v>435.5969356313915</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966045</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622513</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
